--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
@@ -5302,55 +5302,55 @@
         <v>603.61</v>
       </c>
       <c r="C86" t="n">
-        <v>3016.25</v>
+        <v>2737.249999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>243.7373737373737</v>
+        <v>221.1919191919191</v>
       </c>
       <c r="E86" t="n">
-        <v>243.7373737373737</v>
+        <v>221.1919191919191</v>
       </c>
       <c r="F86" t="n">
-        <v>213.270202020202</v>
+        <v>193.5429292929293</v>
       </c>
       <c r="G86" t="n">
-        <v>213.270202020202</v>
+        <v>193.5429292929293</v>
       </c>
       <c r="H86" t="n">
-        <v>213.270202020202</v>
+        <v>193.5429292929293</v>
       </c>
       <c r="I86" t="n">
-        <v>182.8030303030303</v>
+        <v>165.8939393939393</v>
       </c>
       <c r="J86" t="n">
-        <v>182.8030303030303</v>
+        <v>165.8939393939393</v>
       </c>
       <c r="K86" t="n">
-        <v>182.8030303030303</v>
+        <v>165.8939393939393</v>
       </c>
       <c r="L86" t="n">
-        <v>182.8030303030303</v>
+        <v>165.8939393939393</v>
       </c>
       <c r="M86" t="n">
-        <v>243.7373737373737</v>
+        <v>221.1919191919191</v>
       </c>
       <c r="N86" t="n">
-        <v>152.3358585858586</v>
+        <v>138.2449494949495</v>
       </c>
       <c r="O86" t="n">
-        <v>152.3358585858586</v>
+        <v>138.2449494949495</v>
       </c>
       <c r="P86" t="n">
-        <v>121.8686868686868</v>
+        <v>110.5959595959596</v>
       </c>
       <c r="Q86" t="n">
-        <v>152.3358585858586</v>
+        <v>138.2449494949495</v>
       </c>
       <c r="R86" t="n">
-        <v>91.40151515151513</v>
+        <v>82.94696969696967</v>
       </c>
       <c r="S86" t="n">
-        <v>243.7373737373737</v>
+        <v>221.1919191919191</v>
       </c>
     </row>
     <row r="87">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1444.207451273148</v>
+        <v>1444.172331398646</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4412.913031914075</v>
+        <v>4412.804691107285</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>3901.713373191031</v>
+        <v>3901.617582775119</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>17984.78680102221</v>
+        <v>17984.34525905257</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>22967.58410215497</v>
+        <v>22967.02022823005</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>10200.00519369628</v>
+        <v>10199.75477480428</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>37528.87898248748</v>
+        <v>37527.9749484161</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>2815.526944954569</v>
+        <v>2815.458477676633</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>17700.92230402033</v>
+        <v>17700.49185743224</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>11419.56269370977</v>
+        <v>11419.28499564893</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>46876.70948316077</v>
+        <v>46875.58026897489</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>25546.80594901637</v>
+        <v>25546.19055139142</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>34654.03389768057</v>
+        <v>34653.19911582181</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>11598.78695393373</v>
+        <v>11598.49943761398</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1703.54484695656</v>
+        <v>1703.502618666062</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>8346.40402613926</v>
+        <v>8346.197131454648</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2903.365240249686</v>
+        <v>2903.29327023316</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2633.254412058788</v>
+        <v>2633.189137679621</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>15046.18503926595</v>
+        <v>15045.81206718138</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>8134.720941818053</v>
+        <v>8134.519294435733</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>11625.63371646535</v>
+        <v>11625.34553465511</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>8457.813919276936</v>
+        <v>8457.604262910212</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>25151.85732293794</v>
+        <v>25151.23384657951</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3548.397498246173</v>
+        <v>3548.309538859236</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>8811.675257503091</v>
+        <v>8811.456829451012</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>15579.20546079549</v>
+        <v>15578.81927594388</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>8128.862073651413</v>
+        <v>8128.66057150154</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>950.253115761428</v>
+        <v>950.2295604293269</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>6763.953243104152</v>
+        <v>6763.785574972035</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>5858.061676212471</v>
+        <v>5857.916463757007</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>43397.10219583707</v>
+        <v>43396.04687599259</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>11596.37665258349</v>
+        <v>11596.09465480515</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>14654.31822963004</v>
+        <v>14653.96186959555</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>31473.42917360529</v>
+        <v>31472.66381065016</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>40622.31833825038</v>
+        <v>40621.33049490366</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>1660.597752400663</v>
+        <v>1660.556588703438</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>7042.607002139141</v>
+        <v>7042.432426603378</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>5935.578633213052</v>
+        <v>5935.431499229907</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>3766.026295622468</v>
+        <v>3765.932941548039</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>2440.333433736032</v>
+        <v>2440.272941575033</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4657.758680102387</v>
+        <v>4657.643221335941</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>735.6694507303548</v>
+        <v>735.6512146015369</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>4916.721744016142</v>
+        <v>4916.59986594849</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>4873.240477566145</v>
+        <v>4873.119677333077</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>2365.800378901527</v>
+        <v>2365.741734301803</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>3830.919246667869</v>
+        <v>3830.824283995702</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>4200.258933625411</v>
+        <v>4200.154815583121</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>3369.089018196082</v>
+        <v>3369.005503594145</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>1743.76472044714</v>
+        <v>1743.721495167038</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2763.898926997036</v>
+        <v>2763.830414138682</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>2359.623037384431</v>
+        <v>2359.564545911626</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>2405.158034645846</v>
+        <v>2405.098414429587</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>2188.383719660742</v>
+        <v>2188.329472950654</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>4136.06993262126</v>
+        <v>4135.967405726856</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>4760.80985083959</v>
+        <v>4760.691837591069</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>1650.155807745401</v>
+        <v>1650.114902888132</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>1574.074417905595</v>
+        <v>1574.035398990475</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>2311.226800315419</v>
+        <v>2311.169508511857</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4690.683271045322</v>
+        <v>4690.566996128252</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>7944.15138942283</v>
+        <v>7943.954465970399</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>3935.18300492034</v>
+        <v>3935.085457707895</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>3307.406627094911</v>
+        <v>3307.324641505806</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>2951.803809226572</v>
+        <v>2951.730638491459</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>3704.997651464807</v>
+        <v>3704.905810197815</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>3148.704685241188</v>
+        <v>3148.626633632286</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>4877.693685902488</v>
+        <v>4877.572775281146</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>4774.388981596532</v>
+        <v>4774.270631741976</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5454.724839820225</v>
+        <v>5454.589625472603</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>6259.499161765508</v>
+        <v>6259.343998284224</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>4957.447375299978</v>
+        <v>4957.324487705755</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>9273.9165112066</v>
+        <v>9273.686624895599</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6494.421462484709</v>
+        <v>6494.260475636241</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>8122.933423401814</v>
+        <v>8122.732068214181</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>62260.12336463688</v>
+        <v>62258.65127110903</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>53966.6478812455</v>
+        <v>53965.37188067286</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>57621.56753922355</v>
+        <v>57620.19242577207</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>61611.73492780249</v>
+        <v>61610.26459075534</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>74905.15953787824</v>
+        <v>74903.3719590798</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>93627.05267806374</v>
+        <v>93624.81830949208</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>1976.272197804651</v>
+        <v>1976.224139313118</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>17293.54031629278</v>
+        <v>17293.13142361159</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>11408.09287339268</v>
+        <v>11407.82313766495</v>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>18975.57533688297</v>
+        <v>18975.1266737559</v>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>19260.14921496479</v>
+        <v>19259.69382330361</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>15989.6017283549</v>
+        <v>15989.22366631543</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>10228.26238709188</v>
+        <v>10228.02054756366</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>25885.05507478411</v>
+        <v>25884.44304223447</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>7270.189684470306</v>
+        <v>7270.017786333869</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>9974.354720407448</v>
+        <v>9974.118884333973</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>7691.78529803321</v>
+        <v>7691.603431587355</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>3749.461432986468</v>
+        <v>3749.372779806709</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>4960.660778522619</v>
+        <v>4960.5434874504</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>1841.1727376523</v>
+        <v>1841.12920451545</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
@@ -8038,7 +8038,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>24316.93032637498</v>
+        <v>24316.355370949</v>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>12626.25702382618</v>
+        <v>12625.95848552845</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>16311.18035620086</v>
+        <v>16310.79469067795</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>22662.77468756011</v>
+        <v>22662.23884339313</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>28963.51908286065</v>
+        <v>28962.83426235788</v>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>5882.738111635989</v>
+        <v>5882.599018742622</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>35083.03285923992</v>
+        <v>35082.20334746226</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>31916.66168520586</v>
+        <v>31915.9070398798</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>24611.76901593713</v>
+        <v>24611.18708927333</v>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>17256.37205429453</v>
+        <v>17255.96404042879</v>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>19661.00355907322</v>
+        <v>19660.53868951424</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>78390.01974852281</v>
+        <v>78388.14900506301</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>79183.72338828164</v>
+        <v>79181.83370343238</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>257831.633487147</v>
+        <v>257825.6477735722</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>25254.58778673658</v>
+        <v>25253.96776490606</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>41093.27205436365</v>
+        <v>41092.2727584826</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>47638.63964084021</v>
+        <v>47637.47007130287</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>13574.75922050251</v>
+        <v>13574.42594849935</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>10918.41382058698</v>
+        <v>10918.14576414588</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>25350.22056388736</v>
+        <v>25349.59819418999</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>32365.81128363603</v>
+        <v>32365.02421995661</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>45293.6060885901</v>
+        <v>45292.50465003972</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>41921.35870608119</v>
+        <v>41920.35827123149</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>16920.50961250919</v>
+        <v>16920.09419945902</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>9262.79532043789</v>
+        <v>9262.567910853588</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>11128.80414019807</v>
+        <v>11128.53091849385</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>7393.889542045876</v>
+        <v>7393.708015704316</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>3983.796417363838</v>
+        <v>3983.699540401947</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
-        <v>61097.44834557738</v>
+        <v>61095.96259315559</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>12047.65426303456</v>
+        <v>12047.3612912005</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>4495.699837157586</v>
+        <v>4495.59051185675</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>5309.621398211118</v>
+        <v>5309.491042443426</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>29167.10060793972</v>
+        <v>29166.39132970407</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>12362.98286555274</v>
+        <v>12362.68222563683</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>13244.11102850054</v>
+        <v>13243.788961531</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>20319.49541898049</v>
+        <v>20319.01050312916</v>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>41665.40912215367</v>
+        <v>41664.41479542859</v>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>19308.17412858503</v>
+        <v>19307.70901351254</v>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>30308.02311380097</v>
+        <v>30307.29302310085</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>32213.08207615011</v>
+        <v>32212.30609443868</v>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>76024.99169589554</v>
+        <v>76023.14293921931</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>10327.35968702156</v>
+        <v>10327.11091100486</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>93869.38634800892</v>
+        <v>93867.12512609611</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>75637.16122822065</v>
+        <v>75635.33920281869</v>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>292468.4952352174</v>
+        <v>292461.2453852352</v>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>18620.72136304381</v>
+        <v>18620.2597836305</v>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>18485.32908659299</v>
+        <v>18484.87086334866</v>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>27911.95581663855</v>
+        <v>27911.28344486137</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>14083.62969938632</v>
+        <v>14083.28393417565</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>13621.95397923413</v>
+        <v>13621.61954855909</v>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>118651.6641023256</v>
+        <v>118648.722907705</v>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
-        <v>37629.49848155287</v>
+        <v>37628.57464503148</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>77079.5030252493</v>
+        <v>77077.61065721841</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>8141.466160279984</v>
+        <v>8141.268178148289</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>49153.03619287849</v>
+        <v>49151.84090167502</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>50683.99236344862</v>
+        <v>50682.75984283705</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>34750.38657226453</v>
+        <v>34749.54152108144</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>101793.8582287627</v>
+        <v>101791.3828312546</v>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>48061.04632239894</v>
+        <v>48059.87758593119</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>11427.50797999528</v>
+        <v>11427.23008872296</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>33625.46295763864</v>
+        <v>33624.64526206582</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>95402.00014779178</v>
+        <v>95399.65794671267</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>90028.27477990826</v>
+        <v>90026.0854949069</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>36000.05199715204</v>
+        <v>35999.17655691864</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>

--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>29166.39132970407</v>
+        <v>29604.57812949703</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>12362.68222563683</v>
+        <v>11725.52485603341</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>13243.788961531</v>
+        <v>13442.75953134147</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
